--- a/public/samples/sample_data_preassigned.xlsx
+++ b/public/samples/sample_data_preassigned.xlsx
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>강백호</v>
+        <v>송종국</v>
       </c>
       <c r="E2" t="str">
         <v>2010.02.14.</v>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>서태웅</v>
+        <v>성노을</v>
       </c>
       <c r="E3" t="str">
         <v>2010.02.08.</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <v>채치수</v>
+        <v>김민지</v>
       </c>
       <c r="E4" t="str">
         <v>2010.03.21.</v>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>정대만</v>
+        <v>신현철</v>
       </c>
       <c r="E5" t="str">
         <v>2010.02.09.</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>송태섭</v>
+        <v>조세호</v>
       </c>
       <c r="E6" t="str">
         <v>2010.10.15.</v>
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="str">
-        <v>권준호</v>
+        <v>남도일</v>
       </c>
       <c r="E7" t="str">
         <v>2010.12.24.</v>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="str">
-        <v>안한수</v>
+        <v>구두리</v>
       </c>
       <c r="E8" t="str">
         <v>2010.07.03.</v>
@@ -693,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="str">
-        <v>이한나</v>
+        <v>김현우</v>
       </c>
       <c r="E9" t="str">
         <v>2010.04.21.</v>
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="str">
-        <v>채소연</v>
+        <v>황희</v>
       </c>
       <c r="E10" t="str">
         <v>2010.02.09.</v>
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="str">
-        <v>윤대협</v>
+        <v>신준섭</v>
       </c>
       <c r="E11" t="str">
         <v>2010.11.19.</v>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="str">
-        <v>변덕규</v>
+        <v>김수겸</v>
       </c>
       <c r="E12" t="str">
         <v>2010.12.28.</v>
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="str">
-        <v>황태산</v>
+        <v>이이</v>
       </c>
       <c r="E13" t="str">
         <v>2010.03.04.</v>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="str">
-        <v>김수겸</v>
+        <v>아이유</v>
       </c>
       <c r="E14" t="str">
         <v>2010.11.11.</v>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="str">
-        <v>성현준</v>
+        <v>정도전</v>
       </c>
       <c r="E15" t="str">
         <v>2010.08.26.</v>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="str">
-        <v>이정환</v>
+        <v>홍은채</v>
       </c>
       <c r="E16" t="str">
         <v>2010.10.20.</v>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="str">
-        <v>전호장</v>
+        <v>김낙수</v>
       </c>
       <c r="E17" t="str">
         <v>2010.08.12.</v>
@@ -1008,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="str">
-        <v>신준섭</v>
+        <v>고뭉치</v>
       </c>
       <c r="E18" t="str">
         <v>2010.05.02.</v>
@@ -1043,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="str">
-        <v>홍익현</v>
+        <v>표지훈</v>
       </c>
       <c r="E19" t="str">
         <v>2010.07.13.</v>
@@ -1078,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="str">
-        <v>고민구</v>
+        <v>천송이</v>
       </c>
       <c r="E20" t="str">
         <v>2010.01.20.</v>
@@ -1113,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="str">
-        <v>장권혁</v>
+        <v>유관순</v>
       </c>
       <c r="E21" t="str">
         <v>2010.02.18.</v>
@@ -1148,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="str">
-        <v>신짱구</v>
+        <v>최승철</v>
       </c>
       <c r="E22" t="str">
         <v>2010.07.03.</v>
@@ -1183,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="str">
-        <v>김철수</v>
+        <v>길성준</v>
       </c>
       <c r="E23" t="str">
         <v>2010.02.04.</v>
@@ -1218,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="str">
-        <v>한유리</v>
+        <v>매일석</v>
       </c>
       <c r="E24" t="str">
         <v>2010.10.04.</v>
@@ -1253,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="str">
-        <v>이훈이</v>
+        <v>한효주</v>
       </c>
       <c r="E25" t="str">
         <v>2010.11.23.</v>
@@ -1288,7 +1288,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="str">
-        <v>나미리</v>
+        <v>윤아</v>
       </c>
       <c r="E26" t="str">
         <v>2010.06.14.</v>
@@ -1323,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="str">
-        <v>채성아</v>
+        <v>이재성</v>
       </c>
       <c r="E27" t="str">
         <v>2010.02.19.</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="str">
-        <v>노진구</v>
+        <v>이몽룡</v>
       </c>
       <c r="E28" t="str">
         <v>2010.02.20.</v>
@@ -1393,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="str">
-        <v>신이슬</v>
+        <v>윤봉길</v>
       </c>
       <c r="E29" t="str">
         <v>2010.10.04.</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="str">
-        <v>만퉁퉁</v>
+        <v>이훈이</v>
       </c>
       <c r="E30" t="str">
         <v>2010.06.18.</v>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="str">
-        <v>왕비실</v>
+        <v>장한솔</v>
       </c>
       <c r="E31" t="str">
         <v>2010.08.04.</v>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="str">
-        <v>박영민</v>
+        <v>박병호</v>
       </c>
       <c r="E32" t="str">
         <v>2010.05.14.</v>
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="str">
-        <v>남도일</v>
+        <v>계백</v>
       </c>
       <c r="E33" t="str">
         <v>2010.03.04.</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="str">
-        <v>유미란</v>
+        <v>설경구</v>
       </c>
       <c r="E34" t="str">
         <v>2010.10.25.</v>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="str">
-        <v>유명한</v>
+        <v>이명헌</v>
       </c>
       <c r="E35" t="str">
         <v>2010.08.05.</v>
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="str">
-        <v>홍장미</v>
+        <v>조상우</v>
       </c>
       <c r="E36" t="str">
         <v>2010.05.04.</v>
@@ -1673,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="str">
-        <v>고뭉치</v>
+        <v>도민준</v>
       </c>
       <c r="E37" t="str">
         <v>2010.10.24.</v>
@@ -1708,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="str">
-        <v>박세모</v>
+        <v>한아름</v>
       </c>
       <c r="E38" t="str">
         <v>2010.08.24.</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="str">
-        <v>한아름</v>
+        <v>채성아</v>
       </c>
       <c r="E39" t="str">
         <v>2010.12.17.</v>
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="str">
-        <v>하인성</v>
+        <v>장미란</v>
       </c>
       <c r="E40" t="str">
         <v>2010.02.18.</v>
@@ -1813,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="str">
-        <v>서가영</v>
+        <v>성노을</v>
       </c>
       <c r="E41" t="str">
         <v>2010.07.11.</v>
@@ -1848,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="str">
-        <v>이상윤</v>
+        <v>최혜정</v>
       </c>
       <c r="E42" t="str">
         <v>2010.03.17.</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="str">
-        <v>안기준</v>
+        <v>홍익현</v>
       </c>
       <c r="E43" t="str">
         <v>2010.04.03.</v>
@@ -1918,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="str">
-        <v>정보라</v>
+        <v>성현준</v>
       </c>
       <c r="E44" t="str">
         <v>2010.10.18.</v>
@@ -1953,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="str">
-        <v>하쿠나</v>
+        <v>이상순</v>
       </c>
       <c r="E45" t="str">
         <v>2010.09.28.</v>
@@ -1988,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="D46" t="str">
-        <v>치히로</v>
+        <v>정재현</v>
       </c>
       <c r="E46" t="str">
         <v>2010.09.28.</v>
@@ -2023,7 +2023,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="str">
-        <v>소스케</v>
+        <v>세종대</v>
       </c>
       <c r="E47" t="str">
         <v>2010.07.18.</v>
@@ -2058,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="str">
-        <v>토토로</v>
+        <v>우영우</v>
       </c>
       <c r="E48" t="str">
         <v>2010.08.20.</v>
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="str">
-        <v>탄지로</v>
+        <v>장원영</v>
       </c>
       <c r="E49" t="str">
         <v>2010.01.09.</v>
@@ -2128,7 +2128,7 @@
         <v>21</v>
       </c>
       <c r="D50" t="str">
-        <v>네즈코</v>
+        <v>정몽주</v>
       </c>
       <c r="E50" t="str">
         <v>2010.06.14.</v>
@@ -2163,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="D51" t="str">
-        <v>젠이츠</v>
+        <v>전소민</v>
       </c>
       <c r="E51" t="str">
         <v>2010.01.25.</v>
@@ -2198,7 +2198,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="str">
-        <v>이노스</v>
+        <v>송중기</v>
       </c>
       <c r="E52" t="str">
         <v>2010.11.13.</v>
@@ -2233,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="D53" t="str">
-        <v>기유</v>
+        <v>전호장</v>
       </c>
       <c r="E53" t="str">
         <v>2010.06.18.</v>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="str">
-        <v>시노부</v>
+        <v>양석형</v>
       </c>
       <c r="E54" t="str">
         <v>2010.01.27.</v>
@@ -2303,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="D55" t="str">
-        <v>렌고쿠</v>
+        <v>김영철</v>
       </c>
       <c r="E55" t="str">
         <v>2010.10.08.</v>
@@ -2338,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="D56" t="str">
-        <v>무이치</v>
+        <v>이사라</v>
       </c>
       <c r="E56" t="str">
         <v>2010.03.20.</v>
@@ -2373,7 +2373,7 @@
         <v>28</v>
       </c>
       <c r="D57" t="str">
-        <v>사네미</v>
+        <v>유도진</v>
       </c>
       <c r="E57" t="str">
         <v>2010.06.16.</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="str">
-        <v>홍길동</v>
+        <v>권순영</v>
       </c>
       <c r="E58" t="str">
         <v>2010.09.09.</v>
@@ -2443,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="str">
-        <v>성춘향</v>
+        <v>맹구</v>
       </c>
       <c r="E59" t="str">
         <v>2010.09.12.</v>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="str">
-        <v>이몽룡</v>
+        <v>김도영</v>
       </c>
       <c r="E60" t="str">
         <v>2010.08.12.</v>
@@ -2513,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="str">
-        <v>변학도</v>
+        <v>신유빈</v>
       </c>
       <c r="E61" t="str">
         <v>2010.08.10.</v>
@@ -2548,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="str">
-        <v>심청이</v>
+        <v>문태일</v>
       </c>
       <c r="E62" t="str">
         <v>2010.07.10.</v>
@@ -2583,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="str">
-        <v>박흥부</v>
+        <v>신윤복</v>
       </c>
       <c r="E63" t="str">
         <v>2010.06.02.</v>
@@ -2618,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="str">
-        <v>박놀부</v>
+        <v>이마크</v>
       </c>
       <c r="E64" t="str">
         <v>2010.01.26.</v>
@@ -2653,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="str">
-        <v>임꺽정</v>
+        <v>은지원</v>
       </c>
       <c r="E65" t="str">
         <v>2010.10.10.</v>
@@ -2688,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="str">
-        <v>장장화</v>
+        <v>이효리</v>
       </c>
       <c r="E66" t="str">
         <v>2010.01.23.</v>
@@ -2723,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="str">
-        <v>장홍련</v>
+        <v>류현진</v>
       </c>
       <c r="E67" t="str">
         <v>2010.02.06.</v>
@@ -2758,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="str">
-        <v>김선달</v>
+        <v>오창석</v>
       </c>
       <c r="E68" t="str">
         <v>2010.01.05.</v>
@@ -2793,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="str">
-        <v>황진이</v>
+        <v>최택</v>
       </c>
       <c r="E69" t="str">
         <v>2010.06.19.</v>
@@ -2828,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="str">
-        <v>논개</v>
+        <v>봉미선</v>
       </c>
       <c r="E70" t="str">
         <v>2010.01.03.</v>
@@ -2863,7 +2863,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="str">
-        <v>신사임</v>
+        <v>동그라</v>
       </c>
       <c r="E71" t="str">
         <v>2010.04.06.</v>
@@ -2898,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="str">
-        <v>이순신</v>
+        <v>권준호</v>
       </c>
       <c r="E72" t="str">
         <v>2010.02.10.</v>
@@ -2933,7 +2933,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="str">
-        <v>세종대</v>
+        <v>황광희</v>
       </c>
       <c r="E73" t="str">
         <v>2010.05.26.</v>
@@ -2968,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="D74" t="str">
-        <v>장영실</v>
+        <v>팜하니</v>
       </c>
       <c r="E74" t="str">
         <v>2010.10.11.</v>
@@ -3003,7 +3003,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="str">
-        <v>정약용</v>
+        <v>강백호</v>
       </c>
       <c r="E75" t="str">
         <v>2010.07.08.</v>
@@ -3038,7 +3038,7 @@
         <v>19</v>
       </c>
       <c r="D76" t="str">
-        <v>김정호</v>
+        <v>전정국</v>
       </c>
       <c r="E76" t="str">
         <v>2010.02.15.</v>
@@ -3073,7 +3073,7 @@
         <v>20</v>
       </c>
       <c r="D77" t="str">
-        <v>한석봉</v>
+        <v>손흥민</v>
       </c>
       <c r="E77" t="str">
         <v>2010.03.22.</v>
@@ -3108,7 +3108,7 @@
         <v>21</v>
       </c>
       <c r="D78" t="str">
-        <v>김구</v>
+        <v>염미정</v>
       </c>
       <c r="E78" t="str">
         <v>2010.09.21.</v>
@@ -3143,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="D79" t="str">
-        <v>안중근</v>
+        <v>서가영</v>
       </c>
       <c r="E79" t="str">
         <v>2010.02.09.</v>
@@ -3178,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="D80" t="str">
-        <v>윤봉길</v>
+        <v>윤명주</v>
       </c>
       <c r="E80" t="str">
         <v>2010.07.09.</v>
@@ -3213,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="D81" t="str">
-        <v>유관순</v>
+        <v>송지효</v>
       </c>
       <c r="E81" t="str">
         <v>2010.11.11.</v>
@@ -3248,7 +3248,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="str">
-        <v>유재석</v>
+        <v>유명호</v>
       </c>
       <c r="E82" t="str">
         <v>2010.03.02.</v>
@@ -3283,7 +3283,7 @@
         <v>26</v>
       </c>
       <c r="D83" t="str">
-        <v>박명수</v>
+        <v>써니</v>
       </c>
       <c r="E83" t="str">
         <v>2010.04.22.</v>
@@ -3318,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="D84" t="str">
-        <v>정준하</v>
+        <v>강동준</v>
       </c>
       <c r="E84" t="str">
         <v>2010.01.09.</v>
@@ -3353,7 +3353,7 @@
         <v>28</v>
       </c>
       <c r="D85" t="str">
-        <v>하동훈</v>
+        <v>김가을</v>
       </c>
       <c r="E85" t="str">
         <v>2010.04.02.</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="str">
-        <v>노홍철</v>
+        <v>김유신</v>
       </c>
       <c r="E86" t="str">
         <v>2010.01.25.</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="str">
-        <v>정형돈</v>
+        <v>안영수</v>
       </c>
       <c r="E87" t="str">
         <v>2010.05.16.</v>
@@ -3458,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="D88" t="str">
-        <v>길성준</v>
+        <v>이석민</v>
       </c>
       <c r="E88" t="str">
         <v>2010.03.05.</v>
@@ -3493,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="D89" t="str">
-        <v>황광희</v>
+        <v>이샤오</v>
       </c>
       <c r="E89" t="str">
         <v>2010.12.04.</v>
@@ -3528,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="str">
-        <v>조세호</v>
+        <v>정형돈</v>
       </c>
       <c r="E90" t="str">
         <v>2010.02.27.</v>
@@ -3563,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="str">
-        <v>양세형</v>
+        <v>천명태</v>
       </c>
       <c r="E91" t="str">
         <v>2010.05.04.</v>
@@ -3598,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="str">
-        <v>이광수</v>
+        <v>신형만</v>
       </c>
       <c r="E92" t="str">
         <v>2010.04.14.</v>
@@ -3633,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="D93" t="str">
-        <v>김종국</v>
+        <v>최동오</v>
       </c>
       <c r="E93" t="str">
         <v>2010.11.28.</v>
@@ -3668,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="D94" t="str">
-        <v>송지효</v>
+        <v>강호동</v>
       </c>
       <c r="E94" t="str">
         <v>2010.03.07.</v>
@@ -3703,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="D95" t="str">
-        <v>강호동</v>
+        <v>문준휘</v>
       </c>
       <c r="E95" t="str">
         <v>2010.07.11.</v>
@@ -3738,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="D96" t="str">
-        <v>이수근</v>
+        <v>박태환</v>
       </c>
       <c r="E96" t="str">
         <v>2010.06.03.</v>
@@ -3773,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="D97" t="str">
-        <v>은지원</v>
+        <v>정약용</v>
       </c>
       <c r="E97" t="str">
         <v>2010.12.23.</v>
@@ -3808,7 +3808,7 @@
         <v>13</v>
       </c>
       <c r="D98" t="str">
-        <v>안재현</v>
+        <v>마이콜</v>
       </c>
       <c r="E98" t="str">
         <v>2010.01.15.</v>
@@ -3843,7 +3843,7 @@
         <v>14</v>
       </c>
       <c r="D99" t="str">
-        <v>조규현</v>
+        <v>김고은</v>
       </c>
       <c r="E99" t="str">
         <v>2010.01.01.</v>
@@ -3878,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="str">
-        <v>송민호</v>
+        <v>남진모</v>
       </c>
       <c r="E100" t="str">
         <v>2010.01.10.</v>
@@ -3913,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="D101" t="str">
-        <v>표지훈</v>
+        <v>유아인</v>
       </c>
       <c r="E101" t="str">
         <v>2010.03.28.</v>
@@ -3948,7 +3948,7 @@
         <v>17</v>
       </c>
       <c r="D102" t="str">
-        <v>김희철</v>
+        <v>저승이</v>
       </c>
       <c r="E102" t="str">
         <v>2010.07.26.</v>
@@ -3983,7 +3983,7 @@
         <v>18</v>
       </c>
       <c r="D103" t="str">
-        <v>민경훈</v>
+        <v>김진수</v>
       </c>
       <c r="E103" t="str">
         <v>2010.06.20.</v>
@@ -4018,7 +4018,7 @@
         <v>19</v>
       </c>
       <c r="D104" t="str">
-        <v>서장훈</v>
+        <v>김민정</v>
       </c>
       <c r="E104" t="str">
         <v>2010.05.21.</v>
@@ -4053,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="D105" t="str">
-        <v>이상민</v>
+        <v>유미란</v>
       </c>
       <c r="E105" t="str">
         <v>2010.12.12.</v>
@@ -4088,7 +4088,7 @@
         <v>21</v>
       </c>
       <c r="D106" t="str">
-        <v>아이유</v>
+        <v>신사임</v>
       </c>
       <c r="E106" t="str">
         <v>2010.05.09.</v>
@@ -4123,7 +4123,7 @@
         <v>22</v>
       </c>
       <c r="D107" t="str">
-        <v>박효신</v>
+        <v>정우성</v>
       </c>
       <c r="E107" t="str">
         <v>2010.07.04.</v>
@@ -4158,7 +4158,7 @@
         <v>23</v>
       </c>
       <c r="D108" t="str">
-        <v>나얼</v>
+        <v>박지민</v>
       </c>
       <c r="E108" t="str">
         <v>2010.01.21.</v>
@@ -4193,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="D109" t="str">
-        <v>김범수</v>
+        <v>김신</v>
       </c>
       <c r="E109" t="str">
         <v>2010.12.17.</v>
@@ -4228,7 +4228,7 @@
         <v>25</v>
       </c>
       <c r="D110" t="str">
-        <v>이선희</v>
+        <v>민경훈</v>
       </c>
       <c r="E110" t="str">
         <v>2010.07.01.</v>
@@ -4263,7 +4263,7 @@
         <v>26</v>
       </c>
       <c r="D111" t="str">
-        <v>임재범</v>
+        <v>김정호</v>
       </c>
       <c r="E111" t="str">
         <v>2010.03.26.</v>
@@ -4298,7 +4298,7 @@
         <v>27</v>
       </c>
       <c r="D112" t="str">
-        <v>박정현</v>
+        <v>서명호</v>
       </c>
       <c r="E112" t="str">
         <v>2010.05.09.</v>
@@ -4333,7 +4333,7 @@
         <v>28</v>
       </c>
       <c r="D113" t="str">
-        <v>이승기</v>
+        <v>서대영</v>
       </c>
       <c r="E113" t="str">
         <v>2010.11.27.</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="str">
-        <v>차은우</v>
+        <v>김채원</v>
       </c>
       <c r="E114" t="str">
         <v>2010.06.06.</v>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="D115" t="str">
-        <v>김태리</v>
+        <v>황희찬</v>
       </c>
       <c r="E115" t="str">
         <v>2010.08.16.</v>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="D116" t="str">
-        <v>한소희</v>
+        <v>권민우</v>
       </c>
       <c r="E116" t="str">
         <v>2010.04.22.</v>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
       <c r="D117" t="str">
-        <v>송강</v>
+        <v>김남일</v>
       </c>
       <c r="E117" t="str">
         <v>2010.08.09.</v>
@@ -4508,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="str">
-        <v>박보영</v>
+        <v>뺑덕이</v>
       </c>
       <c r="E118" t="str">
         <v>2010.12.14.</v>
@@ -4543,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="str">
-        <v>조정석</v>
+        <v>문동은</v>
       </c>
       <c r="E119" t="str">
         <v>2010.02.25.</v>
@@ -4578,7 +4578,7 @@
         <v>7</v>
       </c>
       <c r="D120" t="str">
-        <v>전미도</v>
+        <v>성기훈</v>
       </c>
       <c r="E120" t="str">
         <v>2010.12.18.</v>
@@ -4613,7 +4613,7 @@
         <v>8</v>
       </c>
       <c r="D121" t="str">
-        <v>유연석</v>
+        <v>하인성</v>
       </c>
       <c r="E121" t="str">
         <v>2010.10.08.</v>
@@ -4648,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="D122" t="str">
-        <v>정경호</v>
+        <v>손예진</v>
       </c>
       <c r="E122" t="str">
         <v>2010.04.18.</v>
@@ -4683,7 +4683,7 @@
         <v>10</v>
       </c>
       <c r="D123" t="str">
-        <v>김대명</v>
+        <v>이수근</v>
       </c>
       <c r="E123" t="str">
         <v>2010.02.14.</v>
@@ -4718,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="D124" t="str">
-        <v>손흥민</v>
+        <v>염창희</v>
       </c>
       <c r="E124" t="str">
         <v>2010.11.27.</v>
@@ -4753,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="D125" t="str">
-        <v>이강인</v>
+        <v>이용팔</v>
       </c>
       <c r="E125" t="str">
         <v>2010.09.18.</v>
@@ -4788,7 +4788,7 @@
         <v>13</v>
       </c>
       <c r="D126" t="str">
-        <v>김민재</v>
+        <v>하정우</v>
       </c>
       <c r="E126" t="str">
         <v>2010.04.14.</v>
@@ -4823,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="D127" t="str">
-        <v>황희찬</v>
+        <v>이동혁</v>
       </c>
       <c r="E127" t="str">
         <v>2010.01.09.</v>
@@ -4858,7 +4858,7 @@
         <v>15</v>
       </c>
       <c r="D128" t="str">
-        <v>조규성</v>
+        <v>김민석</v>
       </c>
       <c r="E128" t="str">
         <v>2010.12.26.</v>
@@ -4893,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="D129" t="str">
-        <v>황인범</v>
+        <v>김정봉</v>
       </c>
       <c r="E129" t="str">
         <v>2010.07.27.</v>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="D130" t="str">
-        <v>이승우</v>
+        <v>팥쥐</v>
       </c>
       <c r="E130" t="str">
         <v>2010.07.01.</v>
@@ -4963,7 +4963,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="str">
-        <v>박지성</v>
+        <v>이운재</v>
       </c>
       <c r="E131" t="str">
         <v>2010.11.13.</v>
@@ -4998,7 +4998,7 @@
         <v>19</v>
       </c>
       <c r="D132" t="str">
-        <v>이영표</v>
+        <v>장덕수</v>
       </c>
       <c r="E132" t="str">
         <v>2010.09.16.</v>
@@ -5033,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="D133" t="str">
-        <v>안정환</v>
+        <v>차두리</v>
       </c>
       <c r="E133" t="str">
         <v>2010.10.26.</v>
@@ -5068,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="D134" t="str">
-        <v>차두리</v>
+        <v>이정후</v>
       </c>
       <c r="E134" t="str">
         <v>2010.02.23.</v>
@@ -5103,7 +5103,7 @@
         <v>22</v>
       </c>
       <c r="D135" t="str">
-        <v>류현진</v>
+        <v>정성구</v>
       </c>
       <c r="E135" t="str">
         <v>2010.06.26.</v>
@@ -5138,7 +5138,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="str">
-        <v>추신수</v>
+        <v>전원우</v>
       </c>
       <c r="E136" t="str">
         <v>2010.02.02.</v>
@@ -5173,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="D137" t="str">
-        <v>이정후</v>
+        <v>안재현</v>
       </c>
       <c r="E137" t="str">
         <v>2010.09.05.</v>
@@ -5208,7 +5208,7 @@
         <v>25</v>
       </c>
       <c r="D138" t="str">
-        <v>김연아</v>
+        <v>현빈</v>
       </c>
       <c r="E138" t="str">
         <v>2010.06.24.</v>
@@ -5243,7 +5243,7 @@
         <v>26</v>
       </c>
       <c r="D139" t="str">
-        <v>손연재</v>
+        <v>이가은</v>
       </c>
       <c r="E139" t="str">
         <v>2010.02.01.</v>
@@ -5278,7 +5278,7 @@
         <v>27</v>
       </c>
       <c r="D140" t="str">
-        <v>장미란</v>
+        <v>양현종</v>
       </c>
       <c r="E140" t="str">
         <v>2010.11.03.</v>
@@ -5313,7 +5313,7 @@
         <v>28</v>
       </c>
       <c r="D141" t="str">
-        <v>박태환</v>
+        <v>희동이</v>
       </c>
       <c r="E141" t="str">
         <v>2010.05.04.</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="str">
-        <v>해리포</v>
+        <v>하동훈</v>
       </c>
       <c r="E142" t="str">
         <v>2010.06.02.</v>
@@ -5383,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="str">
-        <v>론위즐</v>
+        <v>신지수</v>
       </c>
       <c r="E143" t="str">
         <v>2010.05.24.</v>
@@ -5418,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="str">
-        <v>헤르미</v>
+        <v>이상윤</v>
       </c>
       <c r="E144" t="str">
         <v>2010.10.03.</v>
@@ -5453,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="D145" t="str">
-        <v>말포이</v>
+        <v>심청이</v>
       </c>
       <c r="E145" t="str">
         <v>2010.03.07.</v>
@@ -5488,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="str">
-        <v>해그리</v>
+        <v>유세미</v>
       </c>
       <c r="E146" t="str">
         <v>2010.10.26.</v>
@@ -5523,7 +5523,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="str">
-        <v>덤블도</v>
+        <v>이상우</v>
       </c>
       <c r="E147" t="str">
         <v>2010.05.02.</v>
@@ -5558,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="D148" t="str">
-        <v>스네이</v>
+        <v>김연아</v>
       </c>
       <c r="E148" t="str">
         <v>2010.05.06.</v>
@@ -5593,7 +5593,7 @@
         <v>8</v>
       </c>
       <c r="D149" t="str">
-        <v>토니박</v>
+        <v>방정환</v>
       </c>
       <c r="E149" t="str">
         <v>2010.09.23.</v>
@@ -5628,7 +5628,7 @@
         <v>9</v>
       </c>
       <c r="D150" t="str">
-        <v>스티브</v>
+        <v>이지훈</v>
       </c>
       <c r="E150" t="str">
         <v>2010.07.21.</v>
@@ -5663,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="D151" t="str">
-        <v>토르김</v>
+        <v>설기현</v>
       </c>
       <c r="E151" t="str">
         <v>2010.11.03.</v>
@@ -5698,7 +5698,7 @@
         <v>11</v>
       </c>
       <c r="D152" t="str">
-        <v>배너박</v>
+        <v>성보라</v>
       </c>
       <c r="E152" t="str">
         <v>2010.04.07.</v>
@@ -5733,7 +5733,7 @@
         <v>12</v>
       </c>
       <c r="D153" t="str">
-        <v>나타샤</v>
+        <v>신짱아</v>
       </c>
       <c r="E153" t="str">
         <v>2010.12.19.</v>
@@ -5768,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="D154" t="str">
-        <v>바튼조</v>
+        <v>정호석</v>
       </c>
       <c r="E154" t="str">
         <v>2010.03.23.</v>
@@ -5803,7 +5803,7 @@
         <v>14</v>
       </c>
       <c r="D155" t="str">
-        <v>피터팬</v>
+        <v>최산해</v>
       </c>
       <c r="E155" t="str">
         <v>2010.10.13.</v>
@@ -5838,7 +5838,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="str">
-        <v>김민수</v>
+        <v>추민하</v>
       </c>
       <c r="E156" t="str">
         <v>2010.02.20.</v>
@@ -5873,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="D157" t="str">
-        <v>이서준</v>
+        <v>송혜교</v>
       </c>
       <c r="E157" t="str">
         <v>2010.06.13.</v>
@@ -5908,7 +5908,7 @@
         <v>17</v>
       </c>
       <c r="D158" t="str">
-        <v>박지훈</v>
+        <v>홍예지</v>
       </c>
       <c r="E158" t="str">
         <v>2010.08.05.</v>
@@ -5943,7 +5943,7 @@
         <v>18</v>
       </c>
       <c r="D159" t="str">
-        <v>최예준</v>
+        <v>김영권</v>
       </c>
       <c r="E159" t="str">
         <v>2010.04.28.</v>
@@ -5978,7 +5978,7 @@
         <v>19</v>
       </c>
       <c r="D160" t="str">
-        <v>정현우</v>
+        <v>공효진</v>
       </c>
       <c r="E160" t="str">
         <v>2010.06.03.</v>
@@ -6013,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="D161" t="str">
-        <v>강시우</v>
+        <v>지석진</v>
       </c>
       <c r="E161" t="str">
         <v>2010.12.22.</v>
@@ -6048,7 +6048,7 @@
         <v>21</v>
       </c>
       <c r="D162" t="str">
-        <v>조도현</v>
+        <v>황선우</v>
       </c>
       <c r="E162" t="str">
         <v>2010.02.23.</v>
@@ -6083,7 +6083,7 @@
         <v>22</v>
       </c>
       <c r="D163" t="str">
-        <v>윤건우</v>
+        <v>정준하</v>
       </c>
       <c r="E163" t="str">
         <v>2010.05.07.</v>
@@ -6118,7 +6118,7 @@
         <v>23</v>
       </c>
       <c r="D164" t="str">
-        <v>장준우</v>
+        <v>맹사성</v>
       </c>
       <c r="E164" t="str">
         <v>2010.02.04.</v>
@@ -6153,7 +6153,7 @@
         <v>24</v>
       </c>
       <c r="D165" t="str">
-        <v>임지호</v>
+        <v>양세찬</v>
       </c>
       <c r="E165" t="str">
         <v>2010.05.02.</v>
@@ -6188,7 +6188,7 @@
         <v>25</v>
       </c>
       <c r="D166" t="str">
-        <v>한서윤</v>
+        <v>강감찬</v>
       </c>
       <c r="E166" t="str">
         <v>2010.11.15.</v>
@@ -6223,7 +6223,7 @@
         <v>26</v>
       </c>
       <c r="D167" t="str">
-        <v>오서연</v>
+        <v>성선우</v>
       </c>
       <c r="E167" t="str">
         <v>2010.04.27.</v>
@@ -6258,7 +6258,7 @@
         <v>27</v>
       </c>
       <c r="D168" t="str">
-        <v>서지우</v>
+        <v>황정민</v>
       </c>
       <c r="E168" t="str">
         <v>2010.01.26.</v>
@@ -6293,7 +6293,7 @@
         <v>28</v>
       </c>
       <c r="D169" t="str">
-        <v>신하은</v>
+        <v>박보영</v>
       </c>
       <c r="E169" t="str">
         <v>2010.02.16.</v>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="str">
-        <v>권도은</v>
+        <v>김태희</v>
       </c>
       <c r="E170" t="str">
         <v>2010.07.28.</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="D171" t="str">
-        <v>황수아</v>
+        <v>도경수</v>
       </c>
       <c r="E171" t="str">
         <v>2010.02.21.</v>
@@ -6398,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="D172" t="str">
-        <v>안지아</v>
+        <v>김지원</v>
       </c>
       <c r="E172" t="str">
         <v>2010.08.14.</v>
@@ -6433,7 +6433,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="str">
-        <v>송서현</v>
+        <v>나재민</v>
       </c>
       <c r="E173" t="str">
         <v>2010.02.04.</v>
@@ -6468,7 +6468,7 @@
         <v>5</v>
       </c>
       <c r="D174" t="str">
-        <v>전하윤</v>
+        <v>박찬호</v>
       </c>
       <c r="E174" t="str">
         <v>2010.12.18.</v>
@@ -6503,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="str">
-        <v>홍민서</v>
+        <v>공유</v>
       </c>
       <c r="E175" t="str">
         <v>2010.01.20.</v>
@@ -6538,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="D176" t="str">
-        <v>김서준</v>
+        <v>안유진</v>
       </c>
       <c r="E176" t="str">
         <v>2010.07.15.</v>
@@ -6573,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="D177" t="str">
-        <v>이도현</v>
+        <v>허윤진</v>
       </c>
       <c r="E177" t="str">
         <v>2010.04.16.</v>
@@ -6608,7 +6608,7 @@
         <v>9</v>
       </c>
       <c r="D178" t="str">
-        <v>박하준</v>
+        <v>고길동</v>
       </c>
       <c r="E178" t="str">
         <v>2010.09.09.</v>
@@ -6643,7 +6643,7 @@
         <v>10</v>
       </c>
       <c r="D179" t="str">
-        <v>최은우</v>
+        <v>변덕규</v>
       </c>
       <c r="E179" t="str">
         <v>2010.05.17.</v>
@@ -6678,7 +6678,7 @@
         <v>11</v>
       </c>
       <c r="D180" t="str">
-        <v>정시우</v>
+        <v>부승관</v>
       </c>
       <c r="E180" t="str">
         <v>2010.02.13.</v>
@@ -6713,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="D181" t="str">
-        <v>강지호</v>
+        <v>김승규</v>
       </c>
       <c r="E181" t="str">
         <v>2010.06.23.</v>
@@ -6748,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="D182" t="str">
-        <v>조예준</v>
+        <v>신짱구</v>
       </c>
       <c r="E182" t="str">
         <v>2010.01.09.</v>
@@ -6783,7 +6783,7 @@
         <v>14</v>
       </c>
       <c r="D183" t="str">
-        <v>윤민준</v>
+        <v>서장훈</v>
       </c>
       <c r="E183" t="str">
         <v>2010.04.21.</v>
@@ -6818,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="str">
-        <v>장유준</v>
+        <v>김종인</v>
       </c>
       <c r="E184" t="str">
         <v>2010.09.12.</v>
@@ -6853,7 +6853,7 @@
         <v>16</v>
       </c>
       <c r="D185" t="str">
-        <v>임주원</v>
+        <v>김석진</v>
       </c>
       <c r="E185" t="str">
         <v>2010.11.16.</v>
@@ -6888,7 +6888,7 @@
         <v>17</v>
       </c>
       <c r="D186" t="str">
-        <v>한이안</v>
+        <v>이현서</v>
       </c>
       <c r="E186" t="str">
         <v>2010.04.18.</v>
@@ -6923,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="D187" t="str">
-        <v>오준우</v>
+        <v>황인범</v>
       </c>
       <c r="E187" t="str">
         <v>2010.11.15.</v>
@@ -6958,7 +6958,7 @@
         <v>19</v>
       </c>
       <c r="D188" t="str">
-        <v>서건우</v>
+        <v>한유리</v>
       </c>
       <c r="E188" t="str">
         <v>2010.12.01.</v>
@@ -6993,7 +6993,7 @@
         <v>20</v>
       </c>
       <c r="D189" t="str">
-        <v>신로운</v>
+        <v>이제노</v>
       </c>
       <c r="E189" t="str">
         <v>2010.08.22.</v>
@@ -7028,7 +7028,7 @@
         <v>21</v>
       </c>
       <c r="D190" t="str">
-        <v>권우주</v>
+        <v>유명한</v>
       </c>
       <c r="E190" t="str">
         <v>2010.03.14.</v>
@@ -7063,7 +7063,7 @@
         <v>22</v>
       </c>
       <c r="D191" t="str">
-        <v>황선우</v>
+        <v>오청명</v>
       </c>
       <c r="E191" t="str">
         <v>2010.01.28.</v>
@@ -7098,7 +7098,7 @@
         <v>23</v>
       </c>
       <c r="D192" t="str">
-        <v>안서진</v>
+        <v>윤성빈</v>
       </c>
       <c r="E192" t="str">
         <v>2010.01.03.</v>
@@ -7133,7 +7133,7 @@
         <v>24</v>
       </c>
       <c r="D193" t="str">
-        <v>송연우</v>
+        <v>도재학</v>
       </c>
       <c r="E193" t="str">
         <v>2010.05.10.</v>
@@ -7168,7 +7168,7 @@
         <v>25</v>
       </c>
       <c r="D194" t="str">
-        <v>전정우</v>
+        <v>최수연</v>
       </c>
       <c r="E194" t="str">
         <v>2010.04.15.</v>
@@ -7203,7 +7203,7 @@
         <v>26</v>
       </c>
       <c r="D195" t="str">
-        <v>홍승우</v>
+        <v>정우성</v>
       </c>
       <c r="E195" t="str">
         <v>2010.07.21.</v>
@@ -7238,7 +7238,7 @@
         <v>27</v>
       </c>
       <c r="D196" t="str">
-        <v>김지아</v>
+        <v>홍길동</v>
       </c>
       <c r="E196" t="str">
         <v>2010.05.13.</v>
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="str">
-        <v>이하윤</v>
+        <v>홍지수</v>
       </c>
       <c r="E197" t="str">
         <v>2010.12.05.</v>
@@ -7308,7 +7308,7 @@
         <v>2</v>
       </c>
       <c r="D198" t="str">
-        <v>박서아</v>
+        <v>구하리</v>
       </c>
       <c r="E198" t="str">
         <v>2010.12.06.</v>
@@ -7343,7 +7343,7 @@
         <v>3</v>
       </c>
       <c r="D199" t="str">
-        <v>최아윤</v>
+        <v>또치</v>
       </c>
       <c r="E199" t="str">
         <v>2010.04.26.</v>
@@ -7378,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="str">
-        <v>정지유</v>
+        <v>도우너</v>
       </c>
       <c r="E200" t="str">
         <v>2010.11.21.</v>
@@ -7413,7 +7413,7 @@
         <v>5</v>
       </c>
       <c r="D201" t="str">
-        <v>강서윤</v>
+        <v>박서준</v>
       </c>
       <c r="E201" t="str">
         <v>2010.12.28.</v>
@@ -7448,7 +7448,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="str">
-        <v>조서연</v>
+        <v>유체리</v>
       </c>
       <c r="E202" t="str">
         <v>2010.10.22.</v>
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
       <c r="D203" t="str">
-        <v>윤아린</v>
+        <v>이익준</v>
       </c>
       <c r="E203" t="str">
         <v>2010.03.01.</v>
@@ -7518,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="D204" t="str">
-        <v>장하은</v>
+        <v>김대남</v>
       </c>
       <c r="E204" t="str">
         <v>2010.08.15.</v>
@@ -7553,7 +7553,7 @@
         <v>9</v>
       </c>
       <c r="D205" t="str">
-        <v>임아은</v>
+        <v>오세훈</v>
       </c>
       <c r="E205" t="str">
         <v>2010.07.22.</v>
@@ -7588,7 +7588,7 @@
         <v>10</v>
       </c>
       <c r="D206" t="str">
-        <v>한수아</v>
+        <v>이혜인</v>
       </c>
       <c r="E206" t="str">
         <v>2010.03.17.</v>
@@ -7623,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="D207" t="str">
-        <v>오지우</v>
+        <v>전우치</v>
       </c>
       <c r="E207" t="str">
         <v>2010.09.19.</v>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="str">
-        <v>서채원</v>
+        <v>조규현</v>
       </c>
       <c r="E208" t="str">
         <v>2010.07.20.</v>
@@ -7693,7 +7693,7 @@
         <v>13</v>
       </c>
       <c r="D209" t="str">
-        <v>신예린</v>
+        <v>유재석</v>
       </c>
       <c r="E209" t="str">
         <v>2010.06.27.</v>
@@ -7728,7 +7728,7 @@
         <v>14</v>
       </c>
       <c r="D210" t="str">
-        <v>권소윤</v>
+        <v>류동룡</v>
       </c>
       <c r="E210" t="str">
         <v>2010.04.17.</v>
@@ -7763,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="D211" t="str">
-        <v>황유나</v>
+        <v>유덕화</v>
       </c>
       <c r="E211" t="str">
         <v>2010.03.01.</v>
@@ -7798,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="D212" t="str">
-        <v>안지안</v>
+        <v>박찬열</v>
       </c>
       <c r="E212" t="str">
         <v>2010.09.21.</v>
@@ -7833,7 +7833,7 @@
         <v>17</v>
       </c>
       <c r="D213" t="str">
-        <v>송서율</v>
+        <v>채소연</v>
       </c>
       <c r="E213" t="str">
         <v>2010.04.16.</v>
@@ -7868,7 +7868,7 @@
         <v>18</v>
       </c>
       <c r="D214" t="str">
-        <v>전시아</v>
+        <v>고민구</v>
       </c>
       <c r="E214" t="str">
         <v>2010.01.11.</v>
@@ -7903,7 +7903,7 @@
         <v>19</v>
       </c>
       <c r="D215" t="str">
-        <v>홍다은</v>
+        <v>유시진</v>
       </c>
       <c r="E215" t="str">
         <v>2010.06.11.</v>
@@ -7938,7 +7938,7 @@
         <v>20</v>
       </c>
       <c r="D216" t="str">
-        <v>정카라</v>
+        <v>장영실</v>
       </c>
       <c r="E216" t="str">
         <v>2010.05.02.</v>
@@ -7973,7 +7973,7 @@
         <v>21</v>
       </c>
       <c r="D217" t="str">
-        <v>강지지</v>
+        <v>심봉사</v>
       </c>
       <c r="E217" t="str">
         <v>2010.11.04.</v>
@@ -8008,7 +8008,7 @@
         <v>22</v>
       </c>
       <c r="D218" t="str">
-        <v>조수시</v>
+        <v>이황</v>
       </c>
       <c r="E218" t="str">
         <v>2010.03.22.</v>
@@ -8043,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="D219" t="str">
-        <v>윤규서</v>
+        <v>김광현</v>
       </c>
       <c r="E219" t="str">
         <v>2010.02.02.</v>
@@ -8078,7 +8078,7 @@
         <v>24</v>
       </c>
       <c r="D220" t="str">
-        <v>장자재</v>
+        <v>김희철</v>
       </c>
       <c r="E220" t="str">
         <v>2010.06.09.</v>
@@ -8113,7 +8113,7 @@
         <v>25</v>
       </c>
       <c r="D221" t="str">
-        <v>임현차</v>
+        <v>서영호</v>
       </c>
       <c r="E221" t="str">
         <v>2010.04.18.</v>
@@ -8148,7 +8148,7 @@
         <v>26</v>
       </c>
       <c r="D222" t="str">
-        <v>한호호</v>
+        <v>양세형</v>
       </c>
       <c r="E222" t="str">
         <v>2010.10.20.</v>
@@ -8183,7 +8183,7 @@
         <v>27</v>
       </c>
       <c r="D223" t="str">
-        <v>오연마</v>
+        <v>이태용</v>
       </c>
       <c r="E223" t="str">
         <v>2010.10.04.</v>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="str">
-        <v>서바윤</v>
+        <v>백정태</v>
       </c>
       <c r="E224" t="str">
         <v>2010.03.27.</v>
@@ -8253,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="str">
-        <v>신서규</v>
+        <v>박지성</v>
       </c>
       <c r="E225" t="str">
         <v>2010.02.21.</v>
@@ -8288,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="str">
-        <v>권은준</v>
+        <v>정석</v>
       </c>
       <c r="E226" t="str">
         <v>2010.01.19.</v>
@@ -8323,7 +8323,7 @@
         <v>4</v>
       </c>
       <c r="D227" t="str">
-        <v>황하하</v>
+        <v>임꺽정</v>
       </c>
       <c r="E227" t="str">
         <v>2010.06.13.</v>
@@ -8358,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="str">
-        <v>안라카</v>
+        <v>권지옹</v>
       </c>
       <c r="E228" t="str">
         <v>2010.01.17.</v>
@@ -8393,7 +8393,7 @@
         <v>6</v>
       </c>
       <c r="D229" t="str">
-        <v>송타영</v>
+        <v>다니엘</v>
       </c>
       <c r="E229" t="str">
         <v>2010.04.28.</v>
@@ -8428,7 +8428,7 @@
         <v>7</v>
       </c>
       <c r="D230" t="str">
-        <v>전윤바</v>
+        <v>황태산</v>
       </c>
       <c r="E230" t="str">
         <v>2010.03.28.</v>
@@ -8463,7 +8463,7 @@
         <v>8</v>
       </c>
       <c r="D231" t="str">
-        <v>홍빈아</v>
+        <v>윤대협</v>
       </c>
       <c r="E231" t="str">
         <v>2010.04.27.</v>
@@ -8498,7 +8498,7 @@
         <v>9</v>
       </c>
       <c r="D232" t="str">
-        <v>유나나</v>
+        <v>콩쥐</v>
       </c>
       <c r="E232" t="str">
         <v>2010.02.23.</v>
@@ -8533,7 +8533,7 @@
         <v>10</v>
       </c>
       <c r="D233" t="str">
-        <v>고차현</v>
+        <v>이미나</v>
       </c>
       <c r="E233" t="str">
         <v>2010.12.13.</v>
@@ -8568,7 +8568,7 @@
         <v>11</v>
       </c>
       <c r="D234" t="str">
-        <v>문우도</v>
+        <v>최무선</v>
       </c>
       <c r="E234" t="str">
         <v>2010.01.26.</v>
@@ -8603,7 +8603,7 @@
         <v>12</v>
       </c>
       <c r="D235" t="str">
-        <v>양영타</v>
+        <v>김구</v>
       </c>
       <c r="E235" t="str">
         <v>2010.03.17.</v>
@@ -8638,7 +8638,7 @@
         <v>13</v>
       </c>
       <c r="D236" t="str">
-        <v>손시수</v>
+        <v>양호열</v>
       </c>
       <c r="E236" t="str">
         <v>2010.10.07.</v>
@@ -8673,7 +8673,7 @@
         <v>14</v>
       </c>
       <c r="D237" t="str">
-        <v>배사사</v>
+        <v>김정환</v>
       </c>
       <c r="E237" t="str">
         <v>2010.06.22.</v>
@@ -8708,7 +8708,7 @@
         <v>15</v>
       </c>
       <c r="D238" t="str">
-        <v>조준은</v>
+        <v>이강인</v>
       </c>
       <c r="E238" t="str">
         <v>2010.12.21.</v>
@@ -8743,7 +8743,7 @@
         <v>16</v>
       </c>
       <c r="D239" t="str">
-        <v>백진다</v>
+        <v>민윤기</v>
       </c>
       <c r="E239" t="str">
         <v>2010.10.23.</v>
@@ -8778,7 +8778,7 @@
         <v>17</v>
       </c>
       <c r="D240" t="str">
-        <v>허도우</v>
+        <v>김수현</v>
       </c>
       <c r="E240" t="str">
         <v>2010.11.16.</v>
@@ -8813,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="D241" t="str">
-        <v>남마연</v>
+        <v>김종대</v>
       </c>
       <c r="E241" t="str">
         <v>2010.11.23.</v>
@@ -8848,7 +8848,7 @@
         <v>19</v>
       </c>
       <c r="D242" t="str">
-        <v>김민민</v>
+        <v>한소라</v>
       </c>
       <c r="E242" t="str">
         <v>2010.03.02.</v>
@@ -8883,7 +8883,7 @@
         <v>20</v>
       </c>
       <c r="D243" t="str">
-        <v>이아빈</v>
+        <v>이순신</v>
       </c>
       <c r="E243" t="str">
         <v>2010.11.19.</v>
@@ -8918,7 +8918,7 @@
         <v>21</v>
       </c>
       <c r="D244" t="str">
-        <v>박재자</v>
+        <v>최진철</v>
       </c>
       <c r="E244" t="str">
         <v>2010.10.17.</v>
@@ -8953,7 +8953,7 @@
         <v>22</v>
       </c>
       <c r="D245" t="str">
-        <v>최다진</v>
+        <v>윤정한</v>
       </c>
       <c r="E245" t="str">
         <v>2010.08.25.</v>
@@ -8988,7 +8988,7 @@
         <v>23</v>
       </c>
       <c r="D246" t="str">
-        <v>정카라</v>
+        <v>조인성</v>
       </c>
       <c r="E246" t="str">
         <v>2010.09.14.</v>
@@ -9023,7 +9023,7 @@
         <v>24</v>
       </c>
       <c r="D247" t="str">
-        <v>강지지</v>
+        <v>김민재</v>
       </c>
       <c r="E247" t="str">
         <v>2010.10.04.</v>
@@ -9058,7 +9058,7 @@
         <v>25</v>
       </c>
       <c r="D248" t="str">
-        <v>조수시</v>
+        <v>안한수</v>
       </c>
       <c r="E248" t="str">
         <v>2010.02.21.</v>
@@ -9093,7 +9093,7 @@
         <v>26</v>
       </c>
       <c r="D249" t="str">
-        <v>윤규서</v>
+        <v>권문아</v>
       </c>
       <c r="E249" t="str">
         <v>2010.04.27.</v>
@@ -9128,7 +9128,7 @@
         <v>27</v>
       </c>
       <c r="D250" t="str">
-        <v>장자재</v>
+        <v>리온</v>
       </c>
       <c r="E250" t="str">
         <v>2010.04.01.</v>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="str">
-        <v>임현차</v>
+        <v>추신수</v>
       </c>
       <c r="E251" t="str">
         <v>2010.08.25.</v>
@@ -9198,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="D252" t="str">
-        <v>한호호</v>
+        <v>오일남</v>
       </c>
       <c r="E252" t="str">
         <v>2010.09.07.</v>
@@ -9233,7 +9233,7 @@
         <v>3</v>
       </c>
       <c r="D253" t="str">
-        <v>오연마</v>
+        <v>강해린</v>
       </c>
       <c r="E253" t="str">
         <v>2010.01.26.</v>
@@ -9268,7 +9268,7 @@
         <v>4</v>
       </c>
       <c r="D254" t="str">
-        <v>서바윤</v>
+        <v>김남준</v>
       </c>
       <c r="E254" t="str">
         <v>2010.01.24.</v>
@@ -9303,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="D255" t="str">
-        <v>신서규</v>
+        <v>황준호</v>
       </c>
       <c r="E255" t="str">
         <v>2010.09.10.</v>
@@ -9338,7 +9338,7 @@
         <v>6</v>
       </c>
       <c r="D256" t="str">
-        <v>권은준</v>
+        <v>박흥부</v>
       </c>
       <c r="E256" t="str">
         <v>2010.12.04.</v>
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="D257" t="str">
-        <v>황하하</v>
+        <v>서태웅</v>
       </c>
       <c r="E257" t="str">
         <v>2010.01.09.</v>
@@ -9408,7 +9408,7 @@
         <v>8</v>
       </c>
       <c r="D258" t="str">
-        <v>안라카</v>
+        <v>김준면</v>
       </c>
       <c r="E258" t="str">
         <v>2010.07.10.</v>
@@ -9443,7 +9443,7 @@
         <v>9</v>
       </c>
       <c r="D259" t="str">
-        <v>송타영</v>
+        <v>김연경</v>
       </c>
       <c r="E259" t="str">
         <v>2010.07.13.</v>
@@ -9478,7 +9478,7 @@
         <v>10</v>
       </c>
       <c r="D260" t="str">
-        <v>전윤바</v>
+        <v>송태섭</v>
       </c>
       <c r="E260" t="str">
         <v>2010.07.25.</v>
@@ -9513,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="D261" t="str">
-        <v>홍빈아</v>
+        <v>구두리</v>
       </c>
       <c r="E261" t="str">
         <v>2010.12.20.</v>
@@ -9548,7 +9548,7 @@
         <v>12</v>
       </c>
       <c r="D262" t="str">
-        <v>유나나</v>
+        <v>유지민</v>
       </c>
       <c r="E262" t="str">
         <v>2010.08.22.</v>
@@ -9583,7 +9583,7 @@
         <v>13</v>
       </c>
       <c r="D263" t="str">
-        <v>고차현</v>
+        <v>남훈</v>
       </c>
       <c r="E263" t="str">
         <v>2010.07.07.</v>
@@ -9618,7 +9618,7 @@
         <v>14</v>
       </c>
       <c r="D264" t="str">
-        <v>문우도</v>
+        <v>박놀부</v>
       </c>
       <c r="E264" t="str">
         <v>2010.06.20.</v>
@@ -9653,7 +9653,7 @@
         <v>15</v>
       </c>
       <c r="D265" t="str">
-        <v>양영타</v>
+        <v>도진우</v>
       </c>
       <c r="E265" t="str">
         <v>2010.08.27.</v>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="D266" t="str">
-        <v>손시수</v>
+        <v>김철수</v>
       </c>
       <c r="E266" t="str">
         <v>2010.12.02.</v>
@@ -9723,7 +9723,7 @@
         <v>17</v>
       </c>
       <c r="D267" t="str">
-        <v>배사사</v>
+        <v>김민규</v>
       </c>
       <c r="E267" t="str">
         <v>2010.07.19.</v>
@@ -9758,7 +9758,7 @@
         <v>18</v>
       </c>
       <c r="D268" t="str">
-        <v>조준은</v>
+        <v>강동원</v>
       </c>
       <c r="E268" t="str">
         <v>2010.03.22.</v>
@@ -9793,7 +9793,7 @@
         <v>19</v>
       </c>
       <c r="D269" t="str">
-        <v>백진다</v>
+        <v>송민호</v>
       </c>
       <c r="E269" t="str">
         <v>2010.06.14.</v>
@@ -9828,7 +9828,7 @@
         <v>20</v>
       </c>
       <c r="D270" t="str">
-        <v>허도우</v>
+        <v>안산</v>
       </c>
       <c r="E270" t="str">
         <v>2010.08.24.</v>
@@ -9863,7 +9863,7 @@
         <v>21</v>
       </c>
       <c r="D271" t="str">
-        <v>남마연</v>
+        <v>강새벽</v>
       </c>
       <c r="E271" t="str">
         <v>2010.02.16.</v>
@@ -9898,7 +9898,7 @@
         <v>22</v>
       </c>
       <c r="D272" t="str">
-        <v>김민민</v>
+        <v>전지현</v>
       </c>
       <c r="E272" t="str">
         <v>2010.07.03.</v>
@@ -9933,7 +9933,7 @@
         <v>23</v>
       </c>
       <c r="D273" t="str">
-        <v>이아빈</v>
+        <v>김태영</v>
       </c>
       <c r="E273" t="str">
         <v>2010.04.27.</v>
@@ -9968,7 +9968,7 @@
         <v>24</v>
       </c>
       <c r="D274" t="str">
-        <v>박재자</v>
+        <v>손명오</v>
       </c>
       <c r="E274" t="str">
         <v>2010.11.13.</v>
@@ -10003,7 +10003,7 @@
         <v>25</v>
       </c>
       <c r="D275" t="str">
-        <v>최다진</v>
+        <v>이상화</v>
       </c>
       <c r="E275" t="str">
         <v>2010.09.24.</v>
@@ -10038,7 +10038,7 @@
         <v>26</v>
       </c>
       <c r="D276" t="str">
-        <v>정카라</v>
+        <v>이상민</v>
       </c>
       <c r="E276" t="str">
         <v>2010.02.16.</v>
@@ -10073,7 +10073,7 @@
         <v>27</v>
       </c>
       <c r="D277" t="str">
-        <v>강지지</v>
+        <v>이승엽</v>
       </c>
       <c r="E277" t="str">
         <v>2010.09.26.</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="str">
-        <v>조수시</v>
+        <v>김준완</v>
       </c>
       <c r="E278" t="str">
         <v>2010.06.16.</v>
@@ -10143,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="D279" t="str">
-        <v>윤규서</v>
+        <v>박연진</v>
       </c>
       <c r="E279" t="str">
         <v>2010.11.19.</v>
@@ -10178,7 +10178,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="str">
-        <v>장자재</v>
+        <v>이정환</v>
       </c>
       <c r="E280" t="str">
         <v>2010.04.25.</v>
@@ -10213,7 +10213,7 @@
         <v>4</v>
       </c>
       <c r="D281" t="str">
-        <v>임현차</v>
+        <v>노홍철</v>
       </c>
       <c r="E281" t="str">
         <v>2010.11.22.</v>
@@ -10248,7 +10248,7 @@
         <v>5</v>
       </c>
       <c r="D282" t="str">
-        <v>한호호</v>
+        <v>안창호</v>
       </c>
       <c r="E282" t="str">
         <v>2010.06.17.</v>
@@ -10283,7 +10283,7 @@
         <v>6</v>
       </c>
       <c r="D283" t="str">
-        <v>오연마</v>
+        <v>김윤석</v>
       </c>
       <c r="E283" t="str">
         <v>2010.08.05.</v>
@@ -10318,7 +10318,7 @@
         <v>7</v>
       </c>
       <c r="D284" t="str">
-        <v>서바윤</v>
+        <v>최한솔</v>
       </c>
       <c r="E284" t="str">
         <v>2010.02.22.</v>
@@ -10353,7 +10353,7 @@
         <v>8</v>
       </c>
       <c r="D285" t="str">
-        <v>신서규</v>
+        <v>변학도</v>
       </c>
       <c r="E285" t="str">
         <v>2010.01.26.</v>
@@ -10388,7 +10388,7 @@
         <v>9</v>
       </c>
       <c r="D286" t="str">
-        <v>권은준</v>
+        <v>김하성</v>
       </c>
       <c r="E286" t="str">
         <v>2010.02.07.</v>
@@ -10423,7 +10423,7 @@
         <v>10</v>
       </c>
       <c r="D287" t="str">
-        <v>황하하</v>
+        <v>이병헌</v>
       </c>
       <c r="E287" t="str">
         <v>2010.03.08.</v>
@@ -10458,7 +10458,7 @@
         <v>11</v>
       </c>
       <c r="D288" t="str">
-        <v>안라카</v>
+        <v>장장화</v>
       </c>
       <c r="E288" t="str">
         <v>2010.08.14.</v>
@@ -10493,7 +10493,7 @@
         <v>12</v>
       </c>
       <c r="D289" t="str">
-        <v>송타영</v>
+        <v>지은탁</v>
       </c>
       <c r="E289" t="str">
         <v>2010.02.12.</v>
@@ -10528,7 +10528,7 @@
         <v>13</v>
       </c>
       <c r="D290" t="str">
-        <v>전윤바</v>
+        <v>박지성</v>
       </c>
       <c r="E290" t="str">
         <v>2010.08.18.</v>
@@ -10563,7 +10563,7 @@
         <v>14</v>
       </c>
       <c r="D291" t="str">
-        <v>홍빈아</v>
+        <v>김동식</v>
       </c>
       <c r="E291" t="str">
         <v>2010.02.10.</v>
@@ -10598,7 +10598,7 @@
         <v>15</v>
       </c>
       <c r="D292" t="str">
-        <v>유나나</v>
+        <v>이정재</v>
       </c>
       <c r="E292" t="str">
         <v>2010.05.25.</v>
@@ -10633,7 +10633,7 @@
         <v>16</v>
       </c>
       <c r="D293" t="str">
-        <v>고차현</v>
+        <v>장권혁</v>
       </c>
       <c r="E293" t="str">
         <v>2010.01.24.</v>
@@ -10668,7 +10668,7 @@
         <v>17</v>
       </c>
       <c r="D294" t="str">
-        <v>문우도</v>
+        <v>김정우</v>
       </c>
       <c r="E294" t="str">
         <v>2010.08.17.</v>
@@ -10703,7 +10703,7 @@
         <v>18</v>
       </c>
       <c r="D295" t="str">
-        <v>양영타</v>
+        <v>을지문</v>
       </c>
       <c r="E295" t="str">
         <v>2010.03.07.</v>
@@ -10738,7 +10738,7 @@
         <v>19</v>
       </c>
       <c r="D296" t="str">
-        <v>손시수</v>
+        <v>변백현</v>
       </c>
       <c r="E296" t="str">
         <v>2010.03.06.</v>
@@ -10773,7 +10773,7 @@
         <v>20</v>
       </c>
       <c r="D297" t="str">
-        <v>배사사</v>
+        <v>최강림</v>
       </c>
       <c r="E297" t="str">
         <v>2010.12.04.</v>
@@ -10808,7 +10808,7 @@
         <v>21</v>
       </c>
       <c r="D298" t="str">
-        <v>조준은</v>
+        <v>이영표</v>
       </c>
       <c r="E298" t="str">
         <v>2010.09.22.</v>
@@ -10843,7 +10843,7 @@
         <v>22</v>
       </c>
       <c r="D299" t="str">
-        <v>백진다</v>
+        <v>신태일</v>
       </c>
       <c r="E299" t="str">
         <v>2010.05.14.</v>
@@ -10878,7 +10878,7 @@
         <v>23</v>
       </c>
       <c r="D300" t="str">
-        <v>허도우</v>
+        <v>정명석</v>
       </c>
       <c r="E300" t="str">
         <v>2010.12.27.</v>
@@ -10913,7 +10913,7 @@
         <v>24</v>
       </c>
       <c r="D301" t="str">
-        <v>남마연</v>
+        <v>하도영</v>
       </c>
       <c r="E301" t="str">
         <v>2010.07.25.</v>
@@ -10948,7 +10948,7 @@
         <v>25</v>
       </c>
       <c r="D302" t="str">
-        <v>김민민</v>
+        <v>김종국</v>
       </c>
       <c r="E302" t="str">
         <v>2010.08.07.</v>
@@ -10983,7 +10983,7 @@
         <v>26</v>
       </c>
       <c r="D303" t="str">
-        <v>이아빈</v>
+        <v>전재준</v>
       </c>
       <c r="E303" t="str">
         <v>2010.03.17.</v>
@@ -11018,7 +11018,7 @@
         <v>27</v>
       </c>
       <c r="D304" t="str">
-        <v>박재자</v>
+        <v>서희</v>
       </c>
       <c r="E304" t="str">
         <v>2010.08.15.</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="str">
-        <v>최다진</v>
+        <v>김민지</v>
       </c>
       <c r="E305" t="str">
         <v>2010.04.19.</v>
@@ -11088,7 +11088,7 @@
         <v>2</v>
       </c>
       <c r="D306" t="str">
-        <v>정카라</v>
+        <v>조세호</v>
       </c>
       <c r="E306" t="str">
         <v>2010.09.28.</v>
@@ -11123,7 +11123,7 @@
         <v>3</v>
       </c>
       <c r="D307" t="str">
-        <v>강지지</v>
+        <v>남도일</v>
       </c>
       <c r="E307" t="str">
         <v>2010.07.22.</v>
@@ -11158,7 +11158,7 @@
         <v>4</v>
       </c>
       <c r="D308" t="str">
-        <v>조수시</v>
+        <v>신나리</v>
       </c>
       <c r="E308" t="str">
         <v>2010.07.10.</v>
@@ -11193,7 +11193,7 @@
         <v>5</v>
       </c>
       <c r="D309" t="str">
-        <v>윤규서</v>
+        <v>박지원</v>
       </c>
       <c r="E309" t="str">
         <v>2010.04.15.</v>
@@ -11228,7 +11228,7 @@
         <v>6</v>
       </c>
       <c r="D310" t="str">
-        <v>장자재</v>
+        <v>이광수</v>
       </c>
       <c r="E310" t="str">
         <v>2010.03.06.</v>
@@ -11263,7 +11263,7 @@
         <v>7</v>
       </c>
       <c r="D311" t="str">
-        <v>임현차</v>
+        <v>김제덕</v>
       </c>
       <c r="E311" t="str">
         <v>2010.07.26.</v>
@@ -11298,7 +11298,7 @@
         <v>8</v>
       </c>
       <c r="D312" t="str">
-        <v>한호호</v>
+        <v>박세모</v>
       </c>
       <c r="E312" t="str">
         <v>2010.01.02.</v>
@@ -11333,7 +11333,7 @@
         <v>9</v>
       </c>
       <c r="D313" t="str">
-        <v>오연마</v>
+        <v>안정환</v>
       </c>
       <c r="E313" t="str">
         <v>2010.09.11.</v>
@@ -11368,7 +11368,7 @@
         <v>10</v>
       </c>
       <c r="D314" t="str">
-        <v>서바윤</v>
+        <v>구씨</v>
       </c>
       <c r="E314" t="str">
         <v>2010.10.03.</v>
@@ -11403,7 +11403,7 @@
         <v>11</v>
       </c>
       <c r="D315" t="str">
-        <v>신서규</v>
+        <v>안중근</v>
       </c>
       <c r="E315" t="str">
         <v>2010.04.08.</v>
@@ -11438,7 +11438,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="str">
-        <v>권은준</v>
+        <v>채치수</v>
       </c>
       <c r="E316" t="str">
         <v>2010.06.26.</v>
@@ -11473,7 +11473,7 @@
         <v>13</v>
       </c>
       <c r="D317" t="str">
-        <v>황하하</v>
+        <v>장홍련</v>
       </c>
       <c r="E317" t="str">
         <v>2010.07.02.</v>
@@ -11508,7 +11508,7 @@
         <v>14</v>
       </c>
       <c r="D318" t="str">
-        <v>안라카</v>
+        <v>문현아</v>
       </c>
       <c r="E318" t="str">
         <v>2010.04.20.</v>
@@ -11543,7 +11543,7 @@
         <v>15</v>
       </c>
       <c r="D319" t="str">
-        <v>송타영</v>
+        <v>손연재</v>
       </c>
       <c r="E319" t="str">
         <v>2010.06.18.</v>
@@ -11578,7 +11578,7 @@
         <v>16</v>
       </c>
       <c r="D320" t="str">
-        <v>전윤바</v>
+        <v>안기준</v>
       </c>
       <c r="E320" t="str">
         <v>2010.10.10.</v>
@@ -11613,7 +11613,7 @@
         <v>17</v>
       </c>
       <c r="D321" t="str">
-        <v>홍빈아</v>
+        <v>성춘향</v>
       </c>
       <c r="E321" t="str">
         <v>2010.02.13.</v>
@@ -11648,7 +11648,7 @@
         <v>18</v>
       </c>
       <c r="D322" t="str">
-        <v>유나나</v>
+        <v>최민식</v>
       </c>
       <c r="E322" t="str">
         <v>2010.04.15.</v>
@@ -11683,7 +11683,7 @@
         <v>19</v>
       </c>
       <c r="D323" t="str">
-        <v>고차현</v>
+        <v>염기정</v>
       </c>
       <c r="E323" t="str">
         <v>2010.04.16.</v>
@@ -11718,7 +11718,7 @@
         <v>20</v>
       </c>
       <c r="D324" t="str">
-        <v>문우도</v>
+        <v>이찬</v>
       </c>
       <c r="E324" t="str">
         <v>2010.01.21.</v>
@@ -11753,7 +11753,7 @@
         <v>21</v>
       </c>
       <c r="D325" t="str">
-        <v>양영타</v>
+        <v>장겨울</v>
       </c>
       <c r="E325" t="str">
         <v>2010.03.12.</v>
@@ -11788,7 +11788,7 @@
         <v>22</v>
       </c>
       <c r="D326" t="str">
-        <v>손시수</v>
+        <v>소지섭</v>
       </c>
       <c r="E326" t="str">
         <v>2010.06.16.</v>
@@ -11823,7 +11823,7 @@
         <v>23</v>
       </c>
       <c r="D327" t="str">
-        <v>배사사</v>
+        <v>주여정</v>
       </c>
       <c r="E327" t="str">
         <v>2010.09.15.</v>
@@ -11858,7 +11858,7 @@
         <v>24</v>
       </c>
       <c r="D328" t="str">
-        <v>조준은</v>
+        <v>조규성</v>
       </c>
       <c r="E328" t="str">
         <v>2010.08.04.</v>
@@ -11893,7 +11893,7 @@
         <v>25</v>
       </c>
       <c r="D329" t="str">
-        <v>백진다</v>
+        <v>홍장미</v>
       </c>
       <c r="E329" t="str">
         <v>2010.10.14.</v>
@@ -11928,7 +11928,7 @@
         <v>26</v>
       </c>
       <c r="D330" t="str">
-        <v>허도우</v>
+        <v>송강호</v>
       </c>
       <c r="E330" t="str">
         <v>2010.06.01.</v>
@@ -11963,7 +11963,7 @@
         <v>27</v>
       </c>
       <c r="D331" t="str">
-        <v>남마연</v>
+        <v>김태형</v>
       </c>
       <c r="E331" t="str">
         <v>2010.01.03.</v>
